--- a/FGL/Series/data0.xlsx
+++ b/FGL/Series/data0.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Udesa\Macro-Econometría\Git Hub\MacroEconometrics\JP\TP1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EACB909-4EDF-46E2-8475-62862BA1F2BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F715176-2D6C-4772-BEC9-6E09A899DF91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="380" windowWidth="16080" windowHeight="10030" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Periodo</t>
   </si>
@@ -53,13 +53,22 @@
   <si>
     <t>TPM_CHI</t>
   </si>
+  <si>
+    <t>dummy1</t>
+  </si>
+  <si>
+    <t>dummy2</t>
+  </si>
+  <si>
+    <t>dummy3</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="mmm\.yyyy"/>
+    <numFmt numFmtId="164" formatCode="mmm\.yyyy"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -124,17 +133,21 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="4" fontId="3" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
@@ -419,10 +432,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I229"/>
+  <dimension ref="A1:L229"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="A209" workbookViewId="0">
+      <selection activeCell="L228" sqref="L228"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -430,7 +443,7 @@
     <col min="2" max="2" width="14.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -458,8 +471,17 @@
       <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>36892</v>
       </c>
@@ -487,8 +509,17 @@
       <c r="I2" s="5">
         <v>4.8977272727272698</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J2" s="7">
+        <v>0</v>
+      </c>
+      <c r="K2" s="7">
+        <v>0</v>
+      </c>
+      <c r="L2" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>36923</v>
       </c>
@@ -516,8 +547,17 @@
       <c r="I3" s="5">
         <v>4.6749999999999998</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J3" s="7">
+        <v>0</v>
+      </c>
+      <c r="K3" s="7">
+        <v>0</v>
+      </c>
+      <c r="L3" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>36951</v>
       </c>
@@ -545,8 +585,17 @@
       <c r="I4" s="5">
         <v>4.05</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J4" s="7">
+        <v>0</v>
+      </c>
+      <c r="K4" s="7">
+        <v>0</v>
+      </c>
+      <c r="L4" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>36982</v>
       </c>
@@ -574,8 +623,17 @@
       <c r="I5" s="5">
         <v>3.84</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J5" s="7">
+        <v>0</v>
+      </c>
+      <c r="K5" s="7">
+        <v>0</v>
+      </c>
+      <c r="L5" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>37012</v>
       </c>
@@ -603,8 +661,17 @@
       <c r="I6" s="5">
         <v>3.75</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J6" s="7">
+        <v>0</v>
+      </c>
+      <c r="K6" s="7">
+        <v>0</v>
+      </c>
+      <c r="L6" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>37043</v>
       </c>
@@ -632,8 +699,17 @@
       <c r="I7" s="5">
         <v>3.59</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J7" s="7">
+        <v>0</v>
+      </c>
+      <c r="K7" s="7">
+        <v>0</v>
+      </c>
+      <c r="L7" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>37073</v>
       </c>
@@ -661,8 +737,17 @@
       <c r="I8" s="5">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J8" s="7">
+        <v>0</v>
+      </c>
+      <c r="K8" s="7">
+        <v>0</v>
+      </c>
+      <c r="L8" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>37104</v>
       </c>
@@ -690,8 +775,17 @@
       <c r="I9" s="5">
         <v>6.5</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J9" s="7">
+        <v>0</v>
+      </c>
+      <c r="K9" s="7">
+        <v>0</v>
+      </c>
+      <c r="L9" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>37135</v>
       </c>
@@ -719,8 +813,17 @@
       <c r="I10" s="5">
         <v>6.5</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J10" s="7">
+        <v>0</v>
+      </c>
+      <c r="K10" s="7">
+        <v>0</v>
+      </c>
+      <c r="L10" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>37165</v>
       </c>
@@ -748,8 +851,17 @@
       <c r="I11" s="5">
         <v>6.5</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J11" s="7">
+        <v>0</v>
+      </c>
+      <c r="K11" s="7">
+        <v>0</v>
+      </c>
+      <c r="L11" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
         <v>37196</v>
       </c>
@@ -777,8 +889,17 @@
       <c r="I12" s="5">
         <v>6.5</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J12" s="7">
+        <v>0</v>
+      </c>
+      <c r="K12" s="7">
+        <v>0</v>
+      </c>
+      <c r="L12" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
         <v>37226</v>
       </c>
@@ -806,8 +927,17 @@
       <c r="I13" s="5">
         <v>6.5</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J13" s="7">
+        <v>0</v>
+      </c>
+      <c r="K13" s="7">
+        <v>0</v>
+      </c>
+      <c r="L13" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
         <v>37257</v>
       </c>
@@ -835,8 +965,17 @@
       <c r="I14" s="5">
         <v>6.16</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J14" s="7">
+        <v>0</v>
+      </c>
+      <c r="K14" s="7">
+        <v>0</v>
+      </c>
+      <c r="L14" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
         <v>37288</v>
       </c>
@@ -864,8 +1003,17 @@
       <c r="I15" s="5">
         <v>5.83</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J15" s="7">
+        <v>0</v>
+      </c>
+      <c r="K15" s="7">
+        <v>0</v>
+      </c>
+      <c r="L15" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16" s="2">
         <v>37316</v>
       </c>
@@ -893,8 +1041,17 @@
       <c r="I16" s="5">
         <v>5.05</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J16" s="7">
+        <v>0</v>
+      </c>
+      <c r="K16" s="7">
+        <v>0</v>
+      </c>
+      <c r="L16" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" s="2">
         <v>37347</v>
       </c>
@@ -922,8 +1079,17 @@
       <c r="I17" s="5">
         <v>4.75</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J17" s="7">
+        <v>0</v>
+      </c>
+      <c r="K17" s="7">
+        <v>0</v>
+      </c>
+      <c r="L17" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A18" s="2">
         <v>37377</v>
       </c>
@@ -951,8 +1117,17 @@
       <c r="I18" s="5">
         <v>4.2300000000000004</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J18" s="7">
+        <v>0</v>
+      </c>
+      <c r="K18" s="7">
+        <v>0</v>
+      </c>
+      <c r="L18" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19" s="2">
         <v>37408</v>
       </c>
@@ -980,8 +1155,17 @@
       <c r="I19" s="5">
         <v>4</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J19" s="7">
+        <v>0</v>
+      </c>
+      <c r="K19" s="7">
+        <v>0</v>
+      </c>
+      <c r="L19" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20" s="2">
         <v>37438</v>
       </c>
@@ -1009,8 +1193,17 @@
       <c r="I20" s="5">
         <v>3.54</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J20" s="7">
+        <v>0</v>
+      </c>
+      <c r="K20" s="7">
+        <v>0</v>
+      </c>
+      <c r="L20" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A21" s="2">
         <v>37469</v>
       </c>
@@ -1038,8 +1231,17 @@
       <c r="I21" s="5">
         <v>3.07</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J21" s="7">
+        <v>0</v>
+      </c>
+      <c r="K21" s="7">
+        <v>0</v>
+      </c>
+      <c r="L21" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A22" s="2">
         <v>37500</v>
       </c>
@@ -1067,8 +1269,17 @@
       <c r="I22" s="5">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J22" s="7">
+        <v>0</v>
+      </c>
+      <c r="K22" s="7">
+        <v>0</v>
+      </c>
+      <c r="L22" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A23" s="2">
         <v>37530</v>
       </c>
@@ -1096,8 +1307,17 @@
       <c r="I23" s="5">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J23" s="7">
+        <v>0</v>
+      </c>
+      <c r="K23" s="7">
+        <v>0</v>
+      </c>
+      <c r="L23" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A24" s="2">
         <v>37561</v>
       </c>
@@ -1125,8 +1345,17 @@
       <c r="I24" s="5">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J24" s="7">
+        <v>0</v>
+      </c>
+      <c r="K24" s="7">
+        <v>0</v>
+      </c>
+      <c r="L24" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A25" s="2">
         <v>37591</v>
       </c>
@@ -1154,8 +1383,17 @@
       <c r="I25" s="5">
         <v>3</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J25" s="7">
+        <v>0</v>
+      </c>
+      <c r="K25" s="7">
+        <v>0</v>
+      </c>
+      <c r="L25" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A26" s="2">
         <v>37622</v>
       </c>
@@ -1183,8 +1421,17 @@
       <c r="I26" s="5">
         <v>2.82</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J26" s="7">
+        <v>0</v>
+      </c>
+      <c r="K26" s="7">
+        <v>0</v>
+      </c>
+      <c r="L26" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A27" s="2">
         <v>37653</v>
       </c>
@@ -1212,8 +1459,17 @@
       <c r="I27" s="5">
         <v>2.75</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J27" s="7">
+        <v>0</v>
+      </c>
+      <c r="K27" s="7">
+        <v>0</v>
+      </c>
+      <c r="L27" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A28" s="2">
         <v>37681</v>
       </c>
@@ -1241,8 +1497,17 @@
       <c r="I28" s="5">
         <v>2.75</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J28" s="7">
+        <v>0</v>
+      </c>
+      <c r="K28" s="7">
+        <v>0</v>
+      </c>
+      <c r="L28" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A29" s="2">
         <v>37712</v>
       </c>
@@ -1270,8 +1535,17 @@
       <c r="I29" s="5">
         <v>2.75</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J29" s="7">
+        <v>0</v>
+      </c>
+      <c r="K29" s="7">
+        <v>0</v>
+      </c>
+      <c r="L29" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A30" s="2">
         <v>37742</v>
       </c>
@@ -1299,8 +1573,17 @@
       <c r="I30" s="5">
         <v>2.75</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J30" s="7">
+        <v>0</v>
+      </c>
+      <c r="K30" s="7">
+        <v>0</v>
+      </c>
+      <c r="L30" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A31" s="2">
         <v>37773</v>
       </c>
@@ -1328,8 +1611,17 @@
       <c r="I31" s="5">
         <v>2.75</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J31" s="7">
+        <v>0</v>
+      </c>
+      <c r="K31" s="7">
+        <v>0</v>
+      </c>
+      <c r="L31" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A32" s="2">
         <v>37803</v>
       </c>
@@ -1357,8 +1649,17 @@
       <c r="I32" s="5">
         <v>2.75</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J32" s="7">
+        <v>0</v>
+      </c>
+      <c r="K32" s="7">
+        <v>0</v>
+      </c>
+      <c r="L32" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A33" s="2">
         <v>37834</v>
       </c>
@@ -1386,8 +1687,17 @@
       <c r="I33" s="5">
         <v>2.75</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J33" s="7">
+        <v>0</v>
+      </c>
+      <c r="K33" s="7">
+        <v>0</v>
+      </c>
+      <c r="L33" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A34" s="2">
         <v>37865</v>
       </c>
@@ -1415,8 +1725,17 @@
       <c r="I34" s="5">
         <v>2.75</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J34" s="7">
+        <v>0</v>
+      </c>
+      <c r="K34" s="7">
+        <v>0</v>
+      </c>
+      <c r="L34" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A35" s="2">
         <v>37895</v>
       </c>
@@ -1444,8 +1763,17 @@
       <c r="I35" s="5">
         <v>2.75</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J35" s="7">
+        <v>0</v>
+      </c>
+      <c r="K35" s="7">
+        <v>0</v>
+      </c>
+      <c r="L35" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A36" s="2">
         <v>37926</v>
       </c>
@@ -1473,8 +1801,17 @@
       <c r="I36" s="5">
         <v>2.75</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J36" s="7">
+        <v>0</v>
+      </c>
+      <c r="K36" s="7">
+        <v>0</v>
+      </c>
+      <c r="L36" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A37" s="2">
         <v>37956</v>
       </c>
@@ -1502,8 +1839,17 @@
       <c r="I37" s="5">
         <v>2.4500000000000002</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J37" s="7">
+        <v>0</v>
+      </c>
+      <c r="K37" s="7">
+        <v>0</v>
+      </c>
+      <c r="L37" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A38" s="2">
         <v>37987</v>
       </c>
@@ -1531,8 +1877,17 @@
       <c r="I38" s="5">
         <v>1.87</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J38" s="7">
+        <v>0</v>
+      </c>
+      <c r="K38" s="7">
+        <v>0</v>
+      </c>
+      <c r="L38" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A39" s="2">
         <v>38018</v>
       </c>
@@ -1560,8 +1915,17 @@
       <c r="I39" s="5">
         <v>1.75</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J39" s="7">
+        <v>0</v>
+      </c>
+      <c r="K39" s="7">
+        <v>0</v>
+      </c>
+      <c r="L39" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A40" s="2">
         <v>38047</v>
       </c>
@@ -1589,8 +1953,17 @@
       <c r="I40" s="5">
         <v>1.75</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J40" s="7">
+        <v>0</v>
+      </c>
+      <c r="K40" s="7">
+        <v>0</v>
+      </c>
+      <c r="L40" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A41" s="2">
         <v>38078</v>
       </c>
@@ -1618,8 +1991,17 @@
       <c r="I41" s="5">
         <v>1.75</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J41" s="7">
+        <v>0</v>
+      </c>
+      <c r="K41" s="7">
+        <v>0</v>
+      </c>
+      <c r="L41" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A42" s="2">
         <v>38108</v>
       </c>
@@ -1647,8 +2029,17 @@
       <c r="I42" s="5">
         <v>1.75</v>
       </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J42" s="7">
+        <v>0</v>
+      </c>
+      <c r="K42" s="7">
+        <v>0</v>
+      </c>
+      <c r="L42" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A43" s="2">
         <v>38139</v>
       </c>
@@ -1676,8 +2067,17 @@
       <c r="I43" s="5">
         <v>1.75</v>
       </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J43" s="7">
+        <v>0</v>
+      </c>
+      <c r="K43" s="7">
+        <v>0</v>
+      </c>
+      <c r="L43" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A44" s="2">
         <v>38169</v>
       </c>
@@ -1705,8 +2105,17 @@
       <c r="I44" s="5">
         <v>1.75</v>
       </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J44" s="7">
+        <v>0</v>
+      </c>
+      <c r="K44" s="7">
+        <v>0</v>
+      </c>
+      <c r="L44" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A45" s="2">
         <v>38200</v>
       </c>
@@ -1734,8 +2143,17 @@
       <c r="I45" s="5">
         <v>1.75</v>
       </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J45" s="7">
+        <v>0</v>
+      </c>
+      <c r="K45" s="7">
+        <v>0</v>
+      </c>
+      <c r="L45" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A46" s="2">
         <v>38231</v>
       </c>
@@ -1763,8 +2181,17 @@
       <c r="I46" s="5">
         <v>1.94</v>
       </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J46" s="7">
+        <v>0</v>
+      </c>
+      <c r="K46" s="7">
+        <v>0</v>
+      </c>
+      <c r="L46" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A47" s="2">
         <v>38261</v>
       </c>
@@ -1792,8 +2219,17 @@
       <c r="I47" s="5">
         <v>2</v>
       </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J47" s="7">
+        <v>0</v>
+      </c>
+      <c r="K47" s="7">
+        <v>0</v>
+      </c>
+      <c r="L47" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A48" s="2">
         <v>38292</v>
       </c>
@@ -1821,8 +2257,17 @@
       <c r="I48" s="5">
         <v>2.15</v>
       </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J48" s="7">
+        <v>0</v>
+      </c>
+      <c r="K48" s="7">
+        <v>0</v>
+      </c>
+      <c r="L48" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A49" s="2">
         <v>38322</v>
       </c>
@@ -1850,8 +2295,17 @@
       <c r="I49" s="5">
         <v>2.25</v>
       </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J49" s="7">
+        <v>0</v>
+      </c>
+      <c r="K49" s="7">
+        <v>0</v>
+      </c>
+      <c r="L49" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A50" s="2">
         <v>38353</v>
       </c>
@@ -1879,8 +2333,17 @@
       <c r="I50" s="5">
         <v>2.42</v>
       </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J50" s="7">
+        <v>0</v>
+      </c>
+      <c r="K50" s="7">
+        <v>0</v>
+      </c>
+      <c r="L50" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A51" s="2">
         <v>38384</v>
       </c>
@@ -1908,8 +2371,17 @@
       <c r="I51" s="5">
         <v>2.65</v>
       </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J51" s="7">
+        <v>0</v>
+      </c>
+      <c r="K51" s="7">
+        <v>0</v>
+      </c>
+      <c r="L51" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A52" s="2">
         <v>38412</v>
       </c>
@@ -1937,8 +2409,17 @@
       <c r="I52" s="5">
         <v>2.75</v>
       </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J52" s="7">
+        <v>0</v>
+      </c>
+      <c r="K52" s="7">
+        <v>0</v>
+      </c>
+      <c r="L52" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A53" s="2">
         <v>38443</v>
       </c>
@@ -1966,8 +2447,17 @@
       <c r="I53" s="5">
         <v>2.94</v>
       </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J53" s="7">
+        <v>0</v>
+      </c>
+      <c r="K53" s="7">
+        <v>0</v>
+      </c>
+      <c r="L53" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A54" s="2">
         <v>38473</v>
       </c>
@@ -1995,8 +2485,17 @@
       <c r="I54" s="5">
         <v>3.14</v>
       </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J54" s="7">
+        <v>0</v>
+      </c>
+      <c r="K54" s="7">
+        <v>0</v>
+      </c>
+      <c r="L54" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A55" s="2">
         <v>38504</v>
       </c>
@@ -2024,8 +2523,17 @@
       <c r="I55" s="5">
         <v>3.25</v>
       </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J55" s="7">
+        <v>0</v>
+      </c>
+      <c r="K55" s="7">
+        <v>0</v>
+      </c>
+      <c r="L55" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A56" s="2">
         <v>38534</v>
       </c>
@@ -2053,8 +2561,17 @@
       <c r="I56" s="5">
         <v>3.4</v>
       </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J56" s="7">
+        <v>0</v>
+      </c>
+      <c r="K56" s="7">
+        <v>0</v>
+      </c>
+      <c r="L56" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A57" s="2">
         <v>38565</v>
       </c>
@@ -2082,8 +2599,17 @@
       <c r="I57" s="5">
         <v>3.65</v>
       </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J57" s="7">
+        <v>0</v>
+      </c>
+      <c r="K57" s="7">
+        <v>0</v>
+      </c>
+      <c r="L57" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A58" s="2">
         <v>38596</v>
       </c>
@@ -2111,8 +2637,17 @@
       <c r="I58" s="5">
         <v>3.93</v>
       </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J58" s="7">
+        <v>0</v>
+      </c>
+      <c r="K58" s="7">
+        <v>0</v>
+      </c>
+      <c r="L58" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A59" s="2">
         <v>38626</v>
       </c>
@@ -2140,8 +2675,17 @@
       <c r="I59" s="5">
         <v>4.18</v>
       </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J59" s="7">
+        <v>0</v>
+      </c>
+      <c r="K59" s="7">
+        <v>0</v>
+      </c>
+      <c r="L59" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A60" s="2">
         <v>38657</v>
       </c>
@@ -2169,8 +2713,17 @@
       <c r="I60" s="5">
         <v>4.42</v>
       </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J60" s="7">
+        <v>0</v>
+      </c>
+      <c r="K60" s="7">
+        <v>0</v>
+      </c>
+      <c r="L60" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A61" s="2">
         <v>38687</v>
       </c>
@@ -2198,8 +2751,17 @@
       <c r="I61" s="5">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J61" s="7">
+        <v>0</v>
+      </c>
+      <c r="K61" s="7">
+        <v>0</v>
+      </c>
+      <c r="L61" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A62" s="2">
         <v>38718</v>
       </c>
@@ -2227,8 +2789,17 @@
       <c r="I62" s="5">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J62" s="7">
+        <v>0</v>
+      </c>
+      <c r="K62" s="7">
+        <v>0</v>
+      </c>
+      <c r="L62" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A63" s="2">
         <v>38749</v>
       </c>
@@ -2256,8 +2827,17 @@
       <c r="I63" s="5">
         <v>4.66</v>
       </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J63" s="7">
+        <v>0</v>
+      </c>
+      <c r="K63" s="7">
+        <v>0</v>
+      </c>
+      <c r="L63" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A64" s="2">
         <v>38777</v>
       </c>
@@ -2285,8 +2865,17 @@
       <c r="I64" s="5">
         <v>4.75</v>
       </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J64" s="7">
+        <v>0</v>
+      </c>
+      <c r="K64" s="7">
+        <v>0</v>
+      </c>
+      <c r="L64" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A65" s="2">
         <v>38808</v>
       </c>
@@ -2314,8 +2903,17 @@
       <c r="I65" s="5">
         <v>4.88</v>
       </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J65" s="7">
+        <v>0</v>
+      </c>
+      <c r="K65" s="7">
+        <v>0</v>
+      </c>
+      <c r="L65" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A66" s="2">
         <v>38838</v>
       </c>
@@ -2343,8 +2941,17 @@
       <c r="I66" s="5">
         <v>5</v>
       </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J66" s="7">
+        <v>0</v>
+      </c>
+      <c r="K66" s="7">
+        <v>0</v>
+      </c>
+      <c r="L66" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A67" s="2">
         <v>38869</v>
       </c>
@@ -2372,8 +2979,17 @@
       <c r="I67" s="5">
         <v>5</v>
       </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J67" s="7">
+        <v>0</v>
+      </c>
+      <c r="K67" s="7">
+        <v>0</v>
+      </c>
+      <c r="L67" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A68" s="2">
         <v>38899</v>
       </c>
@@ -2401,8 +3017,17 @@
       <c r="I68" s="5">
         <v>5.14</v>
       </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J68" s="7">
+        <v>0</v>
+      </c>
+      <c r="K68" s="7">
+        <v>0</v>
+      </c>
+      <c r="L68" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A69" s="2">
         <v>38930</v>
       </c>
@@ -2430,8 +3055,17 @@
       <c r="I69" s="5">
         <v>5.25</v>
       </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J69" s="7">
+        <v>0</v>
+      </c>
+      <c r="K69" s="7">
+        <v>0</v>
+      </c>
+      <c r="L69" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A70" s="2">
         <v>38961</v>
       </c>
@@ -2459,8 +3093,17 @@
       <c r="I70" s="5">
         <v>5.25</v>
       </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J70" s="7">
+        <v>0</v>
+      </c>
+      <c r="K70" s="7">
+        <v>0</v>
+      </c>
+      <c r="L70" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A71" s="2">
         <v>38991</v>
       </c>
@@ -2488,8 +3131,17 @@
       <c r="I71" s="5">
         <v>5.25</v>
       </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J71" s="7">
+        <v>0</v>
+      </c>
+      <c r="K71" s="7">
+        <v>0</v>
+      </c>
+      <c r="L71" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A72" s="2">
         <v>39022</v>
       </c>
@@ -2517,8 +3169,17 @@
       <c r="I72" s="5">
         <v>5.25</v>
       </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J72" s="7">
+        <v>0</v>
+      </c>
+      <c r="K72" s="7">
+        <v>0</v>
+      </c>
+      <c r="L72" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A73" s="2">
         <v>39052</v>
       </c>
@@ -2546,8 +3207,17 @@
       <c r="I73" s="5">
         <v>5.25</v>
       </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J73" s="7">
+        <v>0</v>
+      </c>
+      <c r="K73" s="7">
+        <v>0</v>
+      </c>
+      <c r="L73" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A74" s="2">
         <v>39083</v>
       </c>
@@ -2575,8 +3245,17 @@
       <c r="I74" s="5">
         <v>5.09</v>
       </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J74" s="7">
+        <v>0</v>
+      </c>
+      <c r="K74" s="7">
+        <v>0</v>
+      </c>
+      <c r="L74" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A75" s="2">
         <v>39114</v>
       </c>
@@ -2604,8 +3283,17 @@
       <c r="I75" s="5">
         <v>5</v>
       </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J75" s="7">
+        <v>0</v>
+      </c>
+      <c r="K75" s="7">
+        <v>0</v>
+      </c>
+      <c r="L75" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A76" s="2">
         <v>39142</v>
       </c>
@@ -2633,8 +3321,17 @@
       <c r="I76" s="5">
         <v>5</v>
       </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J76" s="7">
+        <v>0</v>
+      </c>
+      <c r="K76" s="7">
+        <v>0</v>
+      </c>
+      <c r="L76" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A77" s="2">
         <v>39173</v>
       </c>
@@ -2662,8 +3359,17 @@
       <c r="I77" s="5">
         <v>5</v>
       </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J77" s="7">
+        <v>0</v>
+      </c>
+      <c r="K77" s="7">
+        <v>0</v>
+      </c>
+      <c r="L77" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A78" s="2">
         <v>39203</v>
       </c>
@@ -2691,8 +3397,17 @@
       <c r="I78" s="5">
         <v>5</v>
       </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J78" s="7">
+        <v>0</v>
+      </c>
+      <c r="K78" s="7">
+        <v>0</v>
+      </c>
+      <c r="L78" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A79" s="2">
         <v>39234</v>
       </c>
@@ -2720,8 +3435,17 @@
       <c r="I79" s="5">
         <v>5</v>
       </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J79" s="7">
+        <v>0</v>
+      </c>
+      <c r="K79" s="7">
+        <v>0</v>
+      </c>
+      <c r="L79" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A80" s="2">
         <v>39264</v>
       </c>
@@ -2749,8 +3473,17 @@
       <c r="I80" s="5">
         <v>5.15</v>
       </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J80" s="7">
+        <v>0</v>
+      </c>
+      <c r="K80" s="7">
+        <v>0</v>
+      </c>
+      <c r="L80" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A81" s="2">
         <v>39295</v>
       </c>
@@ -2778,8 +3511,17 @@
       <c r="I81" s="5">
         <v>5.42</v>
       </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J81" s="7">
+        <v>0</v>
+      </c>
+      <c r="K81" s="7">
+        <v>0</v>
+      </c>
+      <c r="L81" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A82" s="2">
         <v>39326</v>
       </c>
@@ -2807,8 +3549,17 @@
       <c r="I82" s="5">
         <v>5.62</v>
       </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J82" s="7">
+        <v>0</v>
+      </c>
+      <c r="K82" s="7">
+        <v>0</v>
+      </c>
+      <c r="L82" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A83" s="2">
         <v>39356</v>
       </c>
@@ -2836,8 +3587,17 @@
       <c r="I83" s="5">
         <v>5.75</v>
       </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J83" s="7">
+        <v>0</v>
+      </c>
+      <c r="K83" s="7">
+        <v>0</v>
+      </c>
+      <c r="L83" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A84" s="2">
         <v>39387</v>
       </c>
@@ -2865,8 +3625,17 @@
       <c r="I84" s="5">
         <v>5.75</v>
       </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J84" s="7">
+        <v>0</v>
+      </c>
+      <c r="K84" s="7">
+        <v>0</v>
+      </c>
+      <c r="L84" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A85" s="2">
         <v>39417</v>
       </c>
@@ -2894,8 +3663,17 @@
       <c r="I85" s="5">
         <v>5.88</v>
       </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J85" s="7">
+        <v>0</v>
+      </c>
+      <c r="K85" s="7">
+        <v>0</v>
+      </c>
+      <c r="L85" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A86" s="2">
         <v>39448</v>
       </c>
@@ -2923,8 +3701,17 @@
       <c r="I86" s="5">
         <v>6.17</v>
       </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J86" s="7">
+        <v>0</v>
+      </c>
+      <c r="K86" s="7">
+        <v>0</v>
+      </c>
+      <c r="L86" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A87" s="2">
         <v>39479</v>
       </c>
@@ -2952,8 +3739,17 @@
       <c r="I87" s="5">
         <v>6.25</v>
       </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J87" s="7">
+        <v>0</v>
+      </c>
+      <c r="K87" s="7">
+        <v>0</v>
+      </c>
+      <c r="L87" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A88" s="2">
         <v>39508</v>
       </c>
@@ -2981,8 +3777,17 @@
       <c r="I88" s="5">
         <v>6.25</v>
       </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J88" s="7">
+        <v>0</v>
+      </c>
+      <c r="K88" s="7">
+        <v>0</v>
+      </c>
+      <c r="L88" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A89" s="2">
         <v>39539</v>
       </c>
@@ -3010,8 +3815,17 @@
       <c r="I89" s="5">
         <v>6.25</v>
       </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J89" s="7">
+        <v>0</v>
+      </c>
+      <c r="K89" s="7">
+        <v>0</v>
+      </c>
+      <c r="L89" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A90" s="2">
         <v>39569</v>
       </c>
@@ -3039,8 +3853,17 @@
       <c r="I90" s="5">
         <v>6.25</v>
       </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J90" s="7">
+        <v>0</v>
+      </c>
+      <c r="K90" s="7">
+        <v>0</v>
+      </c>
+      <c r="L90" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A91" s="2">
         <v>39600</v>
       </c>
@@ -3068,8 +3891,17 @@
       <c r="I91" s="5">
         <v>6.58</v>
       </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J91" s="7">
+        <v>0</v>
+      </c>
+      <c r="K91" s="7">
+        <v>0</v>
+      </c>
+      <c r="L91" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A92" s="2">
         <v>39630</v>
       </c>
@@ -3097,8 +3929,17 @@
       <c r="I92" s="5">
         <v>7.07</v>
       </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J92" s="7">
+        <v>0</v>
+      </c>
+      <c r="K92" s="7">
+        <v>0</v>
+      </c>
+      <c r="L92" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A93" s="2">
         <v>39661</v>
       </c>
@@ -3126,8 +3967,17 @@
       <c r="I93" s="5">
         <v>7.5</v>
       </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J93" s="7">
+        <v>0</v>
+      </c>
+      <c r="K93" s="7">
+        <v>0</v>
+      </c>
+      <c r="L93" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A94" s="2">
         <v>39692</v>
       </c>
@@ -3155,8 +4005,17 @@
       <c r="I94" s="5">
         <v>8.15</v>
       </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J94" s="7">
+        <v>0</v>
+      </c>
+      <c r="K94" s="7">
+        <v>0</v>
+      </c>
+      <c r="L94" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A95" s="2">
         <v>39722</v>
       </c>
@@ -3184,8 +4043,17 @@
       <c r="I95" s="5">
         <v>8.25</v>
       </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J95" s="7">
+        <v>0</v>
+      </c>
+      <c r="K95" s="7">
+        <v>0</v>
+      </c>
+      <c r="L95" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A96" s="2">
         <v>39753</v>
       </c>
@@ -3213,8 +4081,17 @@
       <c r="I96" s="5">
         <v>8.25</v>
       </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J96" s="7">
+        <v>0</v>
+      </c>
+      <c r="K96" s="7">
+        <v>0</v>
+      </c>
+      <c r="L96" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A97" s="2">
         <v>39783</v>
       </c>
@@ -3242,8 +4119,17 @@
       <c r="I97" s="5">
         <v>8.25</v>
       </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J97" s="7">
+        <v>0</v>
+      </c>
+      <c r="K97" s="7">
+        <v>0</v>
+      </c>
+      <c r="L97" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A98" s="2">
         <v>39814</v>
       </c>
@@ -3271,8 +4157,17 @@
       <c r="I98" s="5">
         <v>7.49</v>
       </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J98" s="7">
+        <v>0</v>
+      </c>
+      <c r="K98" s="7">
+        <v>0</v>
+      </c>
+      <c r="L98" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A99" s="2">
         <v>39845</v>
       </c>
@@ -3300,8 +4195,17 @@
       <c r="I99" s="5">
         <v>5.88</v>
       </c>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J99" s="7">
+        <v>0</v>
+      </c>
+      <c r="K99" s="7">
+        <v>0</v>
+      </c>
+      <c r="L99" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A100" s="2">
         <v>39873</v>
       </c>
@@ -3329,8 +4233,17 @@
       <c r="I100" s="5">
         <v>3.27</v>
       </c>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J100" s="7">
+        <v>0</v>
+      </c>
+      <c r="K100" s="7">
+        <v>0</v>
+      </c>
+      <c r="L100" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A101" s="2">
         <v>39904</v>
       </c>
@@ -3358,8 +4271,17 @@
       <c r="I101" s="5">
         <v>1.92</v>
       </c>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J101" s="7">
+        <v>0</v>
+      </c>
+      <c r="K101" s="7">
+        <v>0</v>
+      </c>
+      <c r="L101" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A102" s="2">
         <v>39934</v>
       </c>
@@ -3387,8 +4309,17 @@
       <c r="I102" s="5">
         <v>1.36</v>
       </c>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J102" s="7">
+        <v>0</v>
+      </c>
+      <c r="K102" s="7">
+        <v>0</v>
+      </c>
+      <c r="L102" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A103" s="2">
         <v>39965</v>
       </c>
@@ -3416,8 +4347,17 @@
       <c r="I103" s="5">
         <v>1.04</v>
       </c>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J103" s="7">
+        <v>0</v>
+      </c>
+      <c r="K103" s="7">
+        <v>0</v>
+      </c>
+      <c r="L103" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A104" s="2">
         <v>39995</v>
       </c>
@@ -3445,8 +4385,17 @@
       <c r="I104" s="5">
         <v>0.57999999999999996</v>
       </c>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J104" s="7">
+        <v>0</v>
+      </c>
+      <c r="K104" s="7">
+        <v>0</v>
+      </c>
+      <c r="L104" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A105" s="2">
         <v>40026</v>
       </c>
@@ -3474,8 +4423,17 @@
       <c r="I105" s="5">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J105" s="7">
+        <v>0</v>
+      </c>
+      <c r="K105" s="7">
+        <v>0</v>
+      </c>
+      <c r="L105" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A106" s="2">
         <v>40057</v>
       </c>
@@ -3503,8 +4461,17 @@
       <c r="I106" s="5">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J106" s="7">
+        <v>0</v>
+      </c>
+      <c r="K106" s="7">
+        <v>0</v>
+      </c>
+      <c r="L106" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A107" s="2">
         <v>40087</v>
       </c>
@@ -3532,8 +4499,17 @@
       <c r="I107" s="5">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J107" s="7">
+        <v>0</v>
+      </c>
+      <c r="K107" s="7">
+        <v>0</v>
+      </c>
+      <c r="L107" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A108" s="2">
         <v>40118</v>
       </c>
@@ -3561,8 +4537,17 @@
       <c r="I108" s="5">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J108" s="7">
+        <v>0</v>
+      </c>
+      <c r="K108" s="7">
+        <v>0</v>
+      </c>
+      <c r="L108" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A109" s="2">
         <v>40148</v>
       </c>
@@ -3590,8 +4575,17 @@
       <c r="I109" s="5">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J109" s="7">
+        <v>0</v>
+      </c>
+      <c r="K109" s="7">
+        <v>0</v>
+      </c>
+      <c r="L109" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A110" s="2">
         <v>40179</v>
       </c>
@@ -3619,8 +4613,17 @@
       <c r="I110" s="5">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J110" s="7">
+        <v>0</v>
+      </c>
+      <c r="K110" s="7">
+        <v>0</v>
+      </c>
+      <c r="L110" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A111" s="2">
         <v>40210</v>
       </c>
@@ -3648,8 +4651,17 @@
       <c r="I111" s="5">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J111" s="7">
+        <v>0</v>
+      </c>
+      <c r="K111" s="7">
+        <v>0</v>
+      </c>
+      <c r="L111" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A112" s="2">
         <v>40238</v>
       </c>
@@ -3677,8 +4689,17 @@
       <c r="I112" s="5">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J112" s="7">
+        <v>1</v>
+      </c>
+      <c r="K112" s="7">
+        <v>0</v>
+      </c>
+      <c r="L112" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A113" s="2">
         <v>40269</v>
       </c>
@@ -3706,8 +4727,17 @@
       <c r="I113" s="5">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J113" s="7">
+        <v>0</v>
+      </c>
+      <c r="K113" s="7">
+        <v>0</v>
+      </c>
+      <c r="L113" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A114" s="2">
         <v>40299</v>
       </c>
@@ -3735,8 +4765,17 @@
       <c r="I114" s="5">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J114" s="7">
+        <v>0</v>
+      </c>
+      <c r="K114" s="7">
+        <v>0</v>
+      </c>
+      <c r="L114" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A115" s="2">
         <v>40330</v>
       </c>
@@ -3764,8 +4803,17 @@
       <c r="I115" s="5">
         <v>0.74</v>
       </c>
-    </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J115" s="7">
+        <v>0</v>
+      </c>
+      <c r="K115" s="7">
+        <v>0</v>
+      </c>
+      <c r="L115" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A116" s="2">
         <v>40360</v>
       </c>
@@ -3793,8 +4841,17 @@
       <c r="I116" s="5">
         <v>1.24</v>
       </c>
-    </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J116" s="7">
+        <v>0</v>
+      </c>
+      <c r="K116" s="7">
+        <v>0</v>
+      </c>
+      <c r="L116" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A117" s="2">
         <v>40391</v>
       </c>
@@ -3822,8 +4879,17 @@
       <c r="I117" s="5">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J117" s="7">
+        <v>0</v>
+      </c>
+      <c r="K117" s="7">
+        <v>0</v>
+      </c>
+      <c r="L117" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A118" s="2">
         <v>40422</v>
       </c>
@@ -3851,8 +4917,17 @@
       <c r="I118" s="5">
         <v>2.2000000000000002</v>
       </c>
-    </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J118" s="7">
+        <v>0</v>
+      </c>
+      <c r="K118" s="7">
+        <v>0</v>
+      </c>
+      <c r="L118" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A119" s="2">
         <v>40452</v>
       </c>
@@ -3880,8 +4955,17 @@
       <c r="I119" s="5">
         <v>2.64</v>
       </c>
-    </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J119" s="7">
+        <v>0</v>
+      </c>
+      <c r="K119" s="7">
+        <v>0</v>
+      </c>
+      <c r="L119" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A120" s="2">
         <v>40483</v>
       </c>
@@ -3909,8 +4993,17 @@
       <c r="I120" s="5">
         <v>2.87</v>
       </c>
-    </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J120" s="7">
+        <v>0</v>
+      </c>
+      <c r="K120" s="7">
+        <v>0</v>
+      </c>
+      <c r="L120" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A121" s="2">
         <v>40513</v>
       </c>
@@ -3938,8 +5031,17 @@
       <c r="I121" s="5">
         <v>3.12</v>
       </c>
-    </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J121" s="7">
+        <v>0</v>
+      </c>
+      <c r="K121" s="7">
+        <v>0</v>
+      </c>
+      <c r="L121" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A122" s="2">
         <v>40544</v>
       </c>
@@ -3967,8 +5069,17 @@
       <c r="I122" s="5">
         <v>3.25</v>
       </c>
-    </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J122" s="7">
+        <v>0</v>
+      </c>
+      <c r="K122" s="7">
+        <v>0</v>
+      </c>
+      <c r="L122" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A123" s="2">
         <v>40575</v>
       </c>
@@ -3996,8 +5107,17 @@
       <c r="I123" s="5">
         <v>3.34</v>
       </c>
-    </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J123" s="7">
+        <v>0</v>
+      </c>
+      <c r="K123" s="7">
+        <v>0</v>
+      </c>
+      <c r="L123" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A124" s="2">
         <v>40603</v>
       </c>
@@ -4025,8 +5145,17 @@
       <c r="I124" s="5">
         <v>3.72</v>
       </c>
-    </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J124" s="7">
+        <v>0</v>
+      </c>
+      <c r="K124" s="7">
+        <v>0</v>
+      </c>
+      <c r="L124" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A125" s="2">
         <v>40634</v>
       </c>
@@ -4054,8 +5183,17 @@
       <c r="I125" s="5">
         <v>4.3</v>
       </c>
-    </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J125" s="7">
+        <v>0</v>
+      </c>
+      <c r="K125" s="7">
+        <v>0</v>
+      </c>
+      <c r="L125" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A126" s="2">
         <v>40664</v>
       </c>
@@ -4083,8 +5221,17 @@
       <c r="I126" s="5">
         <v>4.8</v>
       </c>
-    </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J126" s="7">
+        <v>0</v>
+      </c>
+      <c r="K126" s="7">
+        <v>0</v>
+      </c>
+      <c r="L126" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A127" s="2">
         <v>40695</v>
       </c>
@@ -4112,8 +5259,17 @@
       <c r="I127" s="5">
         <v>5.13</v>
       </c>
-    </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J127" s="7">
+        <v>0</v>
+      </c>
+      <c r="K127" s="7">
+        <v>0</v>
+      </c>
+      <c r="L127" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A128" s="2">
         <v>40725</v>
       </c>
@@ -4141,8 +5297,17 @@
       <c r="I128" s="5">
         <v>5.25</v>
       </c>
-    </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J128" s="7">
+        <v>0</v>
+      </c>
+      <c r="K128" s="7">
+        <v>0</v>
+      </c>
+      <c r="L128" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A129" s="2">
         <v>40756</v>
       </c>
@@ -4170,8 +5335,17 @@
       <c r="I129" s="5">
         <v>5.25</v>
       </c>
-    </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J129" s="7">
+        <v>0</v>
+      </c>
+      <c r="K129" s="7">
+        <v>0</v>
+      </c>
+      <c r="L129" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A130" s="2">
         <v>40787</v>
       </c>
@@ -4199,8 +5373,17 @@
       <c r="I130" s="5">
         <v>5.25</v>
       </c>
-    </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J130" s="7">
+        <v>0</v>
+      </c>
+      <c r="K130" s="7">
+        <v>0</v>
+      </c>
+      <c r="L130" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A131" s="2">
         <v>40817</v>
       </c>
@@ -4228,8 +5411,17 @@
       <c r="I131" s="5">
         <v>5.25</v>
       </c>
-    </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J131" s="7">
+        <v>0</v>
+      </c>
+      <c r="K131" s="7">
+        <v>0</v>
+      </c>
+      <c r="L131" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A132" s="2">
         <v>40848</v>
       </c>
@@ -4257,8 +5449,17 @@
       <c r="I132" s="5">
         <v>5.25</v>
       </c>
-    </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J132" s="7">
+        <v>0</v>
+      </c>
+      <c r="K132" s="7">
+        <v>0</v>
+      </c>
+      <c r="L132" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A133" s="2">
         <v>40878</v>
       </c>
@@ -4286,8 +5487,17 @@
       <c r="I133" s="5">
         <v>5.25</v>
       </c>
-    </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J133" s="7">
+        <v>0</v>
+      </c>
+      <c r="K133" s="7">
+        <v>0</v>
+      </c>
+      <c r="L133" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A134" s="2">
         <v>40909</v>
       </c>
@@ -4315,8 +5525,17 @@
       <c r="I134" s="5">
         <v>5.0999999999999996</v>
       </c>
-    </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J134" s="7">
+        <v>0</v>
+      </c>
+      <c r="K134" s="7">
+        <v>0</v>
+      </c>
+      <c r="L134" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A135" s="2">
         <v>40940</v>
       </c>
@@ -4344,8 +5563,17 @@
       <c r="I135" s="5">
         <v>5</v>
       </c>
-    </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J135" s="7">
+        <v>0</v>
+      </c>
+      <c r="K135" s="7">
+        <v>0</v>
+      </c>
+      <c r="L135" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A136" s="2">
         <v>40969</v>
       </c>
@@ -4373,8 +5601,17 @@
       <c r="I136" s="5">
         <v>5</v>
       </c>
-    </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J136" s="7">
+        <v>0</v>
+      </c>
+      <c r="K136" s="7">
+        <v>0</v>
+      </c>
+      <c r="L136" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A137" s="2">
         <v>41000</v>
       </c>
@@ -4402,8 +5639,17 @@
       <c r="I137" s="5">
         <v>5</v>
       </c>
-    </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J137" s="7">
+        <v>0</v>
+      </c>
+      <c r="K137" s="7">
+        <v>0</v>
+      </c>
+      <c r="L137" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A138" s="2">
         <v>41030</v>
       </c>
@@ -4431,8 +5677,17 @@
       <c r="I138" s="5">
         <v>5</v>
       </c>
-    </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J138" s="7">
+        <v>0</v>
+      </c>
+      <c r="K138" s="7">
+        <v>0</v>
+      </c>
+      <c r="L138" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A139" s="2">
         <v>41061</v>
       </c>
@@ -4460,8 +5715,17 @@
       <c r="I139" s="5">
         <v>5</v>
       </c>
-    </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J139" s="7">
+        <v>0</v>
+      </c>
+      <c r="K139" s="7">
+        <v>0</v>
+      </c>
+      <c r="L139" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A140" s="2">
         <v>41091</v>
       </c>
@@ -4489,8 +5753,17 @@
       <c r="I140" s="5">
         <v>5</v>
       </c>
-    </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J140" s="7">
+        <v>0</v>
+      </c>
+      <c r="K140" s="7">
+        <v>0</v>
+      </c>
+      <c r="L140" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A141" s="2">
         <v>41122</v>
       </c>
@@ -4518,8 +5791,17 @@
       <c r="I141" s="5">
         <v>5</v>
       </c>
-    </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J141" s="7">
+        <v>0</v>
+      </c>
+      <c r="K141" s="7">
+        <v>0</v>
+      </c>
+      <c r="L141" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A142" s="2">
         <v>41153</v>
       </c>
@@ -4547,8 +5829,17 @@
       <c r="I142" s="5">
         <v>5</v>
       </c>
-    </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J142" s="7">
+        <v>0</v>
+      </c>
+      <c r="K142" s="7">
+        <v>0</v>
+      </c>
+      <c r="L142" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A143" s="2">
         <v>41183</v>
       </c>
@@ -4576,8 +5867,17 @@
       <c r="I143" s="5">
         <v>5</v>
       </c>
-    </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J143" s="7">
+        <v>0</v>
+      </c>
+      <c r="K143" s="7">
+        <v>0</v>
+      </c>
+      <c r="L143" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A144" s="2">
         <v>41214</v>
       </c>
@@ -4605,8 +5905,17 @@
       <c r="I144" s="5">
         <v>5</v>
       </c>
-    </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J144" s="7">
+        <v>0</v>
+      </c>
+      <c r="K144" s="7">
+        <v>0</v>
+      </c>
+      <c r="L144" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A145" s="2">
         <v>41244</v>
       </c>
@@ -4634,8 +5943,17 @@
       <c r="I145" s="5">
         <v>5</v>
       </c>
-    </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J145" s="7">
+        <v>0</v>
+      </c>
+      <c r="K145" s="7">
+        <v>0</v>
+      </c>
+      <c r="L145" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A146" s="2">
         <v>41275</v>
       </c>
@@ -4663,8 +5981,17 @@
       <c r="I146" s="5">
         <v>5</v>
       </c>
-    </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J146" s="7">
+        <v>0</v>
+      </c>
+      <c r="K146" s="7">
+        <v>0</v>
+      </c>
+      <c r="L146" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A147" s="2">
         <v>41306</v>
       </c>
@@ -4692,8 +6019,17 @@
       <c r="I147" s="5">
         <v>5</v>
       </c>
-    </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J147" s="7">
+        <v>0</v>
+      </c>
+      <c r="K147" s="7">
+        <v>0</v>
+      </c>
+      <c r="L147" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A148" s="2">
         <v>41334</v>
       </c>
@@ -4721,8 +6057,17 @@
       <c r="I148" s="5">
         <v>5</v>
       </c>
-    </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J148" s="7">
+        <v>0</v>
+      </c>
+      <c r="K148" s="7">
+        <v>0</v>
+      </c>
+      <c r="L148" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A149" s="2">
         <v>41365</v>
       </c>
@@ -4750,8 +6095,17 @@
       <c r="I149" s="5">
         <v>5</v>
       </c>
-    </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J149" s="7">
+        <v>0</v>
+      </c>
+      <c r="K149" s="7">
+        <v>0</v>
+      </c>
+      <c r="L149" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A150" s="2">
         <v>41395</v>
       </c>
@@ -4779,8 +6133,17 @@
       <c r="I150" s="5">
         <v>5</v>
       </c>
-    </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J150" s="7">
+        <v>0</v>
+      </c>
+      <c r="K150" s="7">
+        <v>0</v>
+      </c>
+      <c r="L150" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A151" s="2">
         <v>41426</v>
       </c>
@@ -4808,8 +6171,17 @@
       <c r="I151" s="5">
         <v>5</v>
       </c>
-    </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J151" s="7">
+        <v>0</v>
+      </c>
+      <c r="K151" s="7">
+        <v>0</v>
+      </c>
+      <c r="L151" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A152" s="2">
         <v>41456</v>
       </c>
@@ -4837,8 +6209,17 @@
       <c r="I152" s="5">
         <v>5</v>
       </c>
-    </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J152" s="7">
+        <v>0</v>
+      </c>
+      <c r="K152" s="7">
+        <v>0</v>
+      </c>
+      <c r="L152" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A153" s="2">
         <v>41487</v>
       </c>
@@ -4866,8 +6247,17 @@
       <c r="I153" s="5">
         <v>5</v>
       </c>
-    </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J153" s="7">
+        <v>0</v>
+      </c>
+      <c r="K153" s="7">
+        <v>0</v>
+      </c>
+      <c r="L153" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A154" s="2">
         <v>41518</v>
       </c>
@@ -4895,8 +6285,17 @@
       <c r="I154" s="5">
         <v>5</v>
       </c>
-    </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J154" s="7">
+        <v>0</v>
+      </c>
+      <c r="K154" s="7">
+        <v>0</v>
+      </c>
+      <c r="L154" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A155" s="2">
         <v>41548</v>
       </c>
@@ -4924,8 +6323,17 @@
       <c r="I155" s="5">
         <v>4.9000000000000004</v>
       </c>
-    </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J155" s="7">
+        <v>0</v>
+      </c>
+      <c r="K155" s="7">
+        <v>0</v>
+      </c>
+      <c r="L155" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A156" s="2">
         <v>41579</v>
       </c>
@@ -4953,8 +6361,17 @@
       <c r="I156" s="5">
         <v>4.6500000000000004</v>
       </c>
-    </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J156" s="7">
+        <v>0</v>
+      </c>
+      <c r="K156" s="7">
+        <v>0</v>
+      </c>
+      <c r="L156" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A157" s="2">
         <v>41609</v>
       </c>
@@ -4982,8 +6399,17 @@
       <c r="I157" s="5">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J157" s="7">
+        <v>0</v>
+      </c>
+      <c r="K157" s="7">
+        <v>0</v>
+      </c>
+      <c r="L157" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A158" s="2">
         <v>41640</v>
       </c>
@@ -5011,8 +6437,17 @@
       <c r="I158" s="5">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J158" s="7">
+        <v>0</v>
+      </c>
+      <c r="K158" s="7">
+        <v>0</v>
+      </c>
+      <c r="L158" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A159" s="2">
         <v>41671</v>
       </c>
@@ -5040,8 +6475,17 @@
       <c r="I159" s="5">
         <v>4.4000000000000004</v>
       </c>
-    </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J159" s="7">
+        <v>0</v>
+      </c>
+      <c r="K159" s="7">
+        <v>0</v>
+      </c>
+      <c r="L159" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A160" s="2">
         <v>41699</v>
       </c>
@@ -5069,8 +6513,17 @@
       <c r="I160" s="5">
         <v>4.1100000000000003</v>
       </c>
-    </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J160" s="7">
+        <v>0</v>
+      </c>
+      <c r="K160" s="7">
+        <v>0</v>
+      </c>
+      <c r="L160" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A161" s="2">
         <v>41730</v>
       </c>
@@ -5098,8 +6551,17 @@
       <c r="I161" s="5">
         <v>4</v>
       </c>
-    </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J161" s="7">
+        <v>0</v>
+      </c>
+      <c r="K161" s="7">
+        <v>0</v>
+      </c>
+      <c r="L161" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A162" s="2">
         <v>41760</v>
       </c>
@@ -5127,8 +6589,17 @@
       <c r="I162" s="5">
         <v>4</v>
       </c>
-    </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J162" s="7">
+        <v>0</v>
+      </c>
+      <c r="K162" s="7">
+        <v>0</v>
+      </c>
+      <c r="L162" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A163" s="2">
         <v>41791</v>
       </c>
@@ -5156,8 +6627,17 @@
       <c r="I163" s="5">
         <v>4</v>
       </c>
-    </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J163" s="7">
+        <v>0</v>
+      </c>
+      <c r="K163" s="7">
+        <v>0</v>
+      </c>
+      <c r="L163" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A164" s="2">
         <v>41821</v>
       </c>
@@ -5185,8 +6665,17 @@
       <c r="I164" s="5">
         <v>3.88</v>
       </c>
-    </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J164" s="7">
+        <v>0</v>
+      </c>
+      <c r="K164" s="7">
+        <v>0</v>
+      </c>
+      <c r="L164" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A165" s="2">
         <v>41852</v>
       </c>
@@ -5214,8 +6703,17 @@
       <c r="I165" s="5">
         <v>3.63</v>
       </c>
-    </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J165" s="7">
+        <v>0</v>
+      </c>
+      <c r="K165" s="7">
+        <v>0</v>
+      </c>
+      <c r="L165" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A166" s="2">
         <v>41883</v>
       </c>
@@ -5243,8 +6741,17 @@
       <c r="I166" s="5">
         <v>3.36</v>
       </c>
-    </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J166" s="7">
+        <v>0</v>
+      </c>
+      <c r="K166" s="7">
+        <v>0</v>
+      </c>
+      <c r="L166" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A167" s="2">
         <v>41913</v>
       </c>
@@ -5272,8 +6779,17 @@
       <c r="I167" s="5">
         <v>3.14</v>
       </c>
-    </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J167" s="7">
+        <v>0</v>
+      </c>
+      <c r="K167" s="7">
+        <v>0</v>
+      </c>
+      <c r="L167" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A168" s="2">
         <v>41944</v>
       </c>
@@ -5301,8 +6817,17 @@
       <c r="I168" s="5">
         <v>3</v>
       </c>
-    </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J168" s="7">
+        <v>0</v>
+      </c>
+      <c r="K168" s="7">
+        <v>0</v>
+      </c>
+      <c r="L168" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A169" s="2">
         <v>41974</v>
       </c>
@@ -5330,8 +6855,17 @@
       <c r="I169" s="5">
         <v>3</v>
       </c>
-    </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J169" s="7">
+        <v>0</v>
+      </c>
+      <c r="K169" s="7">
+        <v>0</v>
+      </c>
+      <c r="L169" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A170" s="2">
         <v>42005</v>
       </c>
@@ -5359,8 +6893,17 @@
       <c r="I170" s="5">
         <v>3</v>
       </c>
-    </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J170" s="7">
+        <v>0</v>
+      </c>
+      <c r="K170" s="7">
+        <v>0</v>
+      </c>
+      <c r="L170" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A171" s="2">
         <v>42036</v>
       </c>
@@ -5388,8 +6931,17 @@
       <c r="I171" s="5">
         <v>3</v>
       </c>
-    </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J171" s="7">
+        <v>0</v>
+      </c>
+      <c r="K171" s="7">
+        <v>0</v>
+      </c>
+      <c r="L171" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A172" s="2">
         <v>42064</v>
       </c>
@@ -5417,8 +6969,17 @@
       <c r="I172" s="5">
         <v>3</v>
       </c>
-    </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J172" s="7">
+        <v>0</v>
+      </c>
+      <c r="K172" s="7">
+        <v>0</v>
+      </c>
+      <c r="L172" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A173" s="2">
         <v>42095</v>
       </c>
@@ -5446,8 +7007,17 @@
       <c r="I173" s="5">
         <v>3</v>
       </c>
-    </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J173" s="7">
+        <v>0</v>
+      </c>
+      <c r="K173" s="7">
+        <v>0</v>
+      </c>
+      <c r="L173" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A174" s="2">
         <v>42125</v>
       </c>
@@ -5475,8 +7045,17 @@
       <c r="I174" s="5">
         <v>3</v>
       </c>
-    </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J174" s="7">
+        <v>0</v>
+      </c>
+      <c r="K174" s="7">
+        <v>0</v>
+      </c>
+      <c r="L174" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A175" s="2">
         <v>42156</v>
       </c>
@@ -5504,8 +7083,17 @@
       <c r="I175" s="5">
         <v>3</v>
       </c>
-    </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J175" s="7">
+        <v>0</v>
+      </c>
+      <c r="K175" s="7">
+        <v>0</v>
+      </c>
+      <c r="L175" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A176" s="2">
         <v>42186</v>
       </c>
@@ -5533,8 +7121,17 @@
       <c r="I176" s="5">
         <v>3</v>
       </c>
-    </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J176" s="7">
+        <v>0</v>
+      </c>
+      <c r="K176" s="7">
+        <v>0</v>
+      </c>
+      <c r="L176" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A177" s="2">
         <v>42217</v>
       </c>
@@ -5562,8 +7159,17 @@
       <c r="I177" s="5">
         <v>3</v>
       </c>
-    </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J177" s="7">
+        <v>0</v>
+      </c>
+      <c r="K177" s="7">
+        <v>0</v>
+      </c>
+      <c r="L177" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A178" s="2">
         <v>42248</v>
       </c>
@@ -5591,8 +7197,17 @@
       <c r="I178" s="5">
         <v>3</v>
       </c>
-    </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J178" s="7">
+        <v>0</v>
+      </c>
+      <c r="K178" s="7">
+        <v>0</v>
+      </c>
+      <c r="L178" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A179" s="2">
         <v>42278</v>
       </c>
@@ -5620,8 +7235,17 @@
       <c r="I179" s="5">
         <v>3.13</v>
       </c>
-    </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J179" s="7">
+        <v>0</v>
+      </c>
+      <c r="K179" s="7">
+        <v>0</v>
+      </c>
+      <c r="L179" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A180" s="2">
         <v>42309</v>
       </c>
@@ -5649,8 +7273,17 @@
       <c r="I180" s="5">
         <v>3.25</v>
       </c>
-    </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J180" s="7">
+        <v>0</v>
+      </c>
+      <c r="K180" s="7">
+        <v>0</v>
+      </c>
+      <c r="L180" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A181" s="2">
         <v>42339</v>
       </c>
@@ -5678,8 +7311,17 @@
       <c r="I181" s="5">
         <v>3.35</v>
       </c>
-    </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J181" s="7">
+        <v>0</v>
+      </c>
+      <c r="K181" s="7">
+        <v>0</v>
+      </c>
+      <c r="L181" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A182" s="2">
         <v>42370</v>
       </c>
@@ -5707,8 +7349,17 @@
       <c r="I182" s="5">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J182" s="7">
+        <v>0</v>
+      </c>
+      <c r="K182" s="7">
+        <v>0</v>
+      </c>
+      <c r="L182" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A183" s="2">
         <v>42401</v>
       </c>
@@ -5736,8 +7387,17 @@
       <c r="I183" s="5">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J183" s="7">
+        <v>0</v>
+      </c>
+      <c r="K183" s="7">
+        <v>0</v>
+      </c>
+      <c r="L183" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A184" s="2">
         <v>42430</v>
       </c>
@@ -5765,8 +7425,17 @@
       <c r="I184" s="5">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J184" s="7">
+        <v>0</v>
+      </c>
+      <c r="K184" s="7">
+        <v>0</v>
+      </c>
+      <c r="L184" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A185" s="2">
         <v>42461</v>
       </c>
@@ -5794,8 +7463,17 @@
       <c r="I185" s="5">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J185" s="7">
+        <v>0</v>
+      </c>
+      <c r="K185" s="7">
+        <v>0</v>
+      </c>
+      <c r="L185" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A186" s="2">
         <v>42491</v>
       </c>
@@ -5823,8 +7501,17 @@
       <c r="I186" s="5">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J186" s="7">
+        <v>0</v>
+      </c>
+      <c r="K186" s="7">
+        <v>0</v>
+      </c>
+      <c r="L186" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A187" s="2">
         <v>42522</v>
       </c>
@@ -5852,8 +7539,17 @@
       <c r="I187" s="5">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J187" s="7">
+        <v>0</v>
+      </c>
+      <c r="K187" s="7">
+        <v>0</v>
+      </c>
+      <c r="L187" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A188" s="2">
         <v>42552</v>
       </c>
@@ -5881,8 +7577,17 @@
       <c r="I188" s="5">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J188" s="7">
+        <v>0</v>
+      </c>
+      <c r="K188" s="7">
+        <v>0</v>
+      </c>
+      <c r="L188" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A189" s="2">
         <v>42583</v>
       </c>
@@ -5910,8 +7615,17 @@
       <c r="I189" s="5">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J189" s="7">
+        <v>0</v>
+      </c>
+      <c r="K189" s="7">
+        <v>0</v>
+      </c>
+      <c r="L189" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A190" s="2">
         <v>42614</v>
       </c>
@@ -5939,8 +7653,17 @@
       <c r="I190" s="5">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J190" s="7">
+        <v>0</v>
+      </c>
+      <c r="K190" s="7">
+        <v>0</v>
+      </c>
+      <c r="L190" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A191" s="2">
         <v>42644</v>
       </c>
@@ -5968,8 +7691,17 @@
       <c r="I191" s="5">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J191" s="7">
+        <v>0</v>
+      </c>
+      <c r="K191" s="7">
+        <v>0</v>
+      </c>
+      <c r="L191" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A192" s="2">
         <v>42675</v>
       </c>
@@ -5997,8 +7729,17 @@
       <c r="I192" s="5">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J192" s="7">
+        <v>0</v>
+      </c>
+      <c r="K192" s="7">
+        <v>0</v>
+      </c>
+      <c r="L192" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A193" s="2">
         <v>42705</v>
       </c>
@@ -6026,8 +7767,17 @@
       <c r="I193" s="5">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J193" s="7">
+        <v>0</v>
+      </c>
+      <c r="K193" s="7">
+        <v>0</v>
+      </c>
+      <c r="L193" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A194" s="2">
         <v>42736</v>
       </c>
@@ -6055,8 +7805,17 @@
       <c r="I194" s="5">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J194" s="7">
+        <v>0</v>
+      </c>
+      <c r="K194" s="7">
+        <v>0</v>
+      </c>
+      <c r="L194" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A195" s="2">
         <v>42767</v>
       </c>
@@ -6084,8 +7843,17 @@
       <c r="I195" s="5">
         <v>3.25</v>
       </c>
-    </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J195" s="7">
+        <v>0</v>
+      </c>
+      <c r="K195" s="7">
+        <v>0</v>
+      </c>
+      <c r="L195" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A196" s="2">
         <v>42795</v>
       </c>
@@ -6113,8 +7881,17 @@
       <c r="I196" s="5">
         <v>3.13</v>
       </c>
-    </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J196" s="7">
+        <v>0</v>
+      </c>
+      <c r="K196" s="7">
+        <v>0</v>
+      </c>
+      <c r="L196" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A197" s="2">
         <v>42826</v>
       </c>
@@ -6142,8 +7919,17 @@
       <c r="I197" s="5">
         <v>2.88</v>
       </c>
-    </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J197" s="7">
+        <v>0</v>
+      </c>
+      <c r="K197" s="7">
+        <v>0</v>
+      </c>
+      <c r="L197" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A198" s="2">
         <v>42856</v>
       </c>
@@ -6171,8 +7957,17 @@
       <c r="I198" s="5">
         <v>2.65</v>
       </c>
-    </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J198" s="7">
+        <v>0</v>
+      </c>
+      <c r="K198" s="7">
+        <v>0</v>
+      </c>
+      <c r="L198" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A199" s="2">
         <v>42887</v>
       </c>
@@ -6200,8 +7995,17 @@
       <c r="I199" s="5">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J199" s="7">
+        <v>0</v>
+      </c>
+      <c r="K199" s="7">
+        <v>0</v>
+      </c>
+      <c r="L199" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A200" s="2">
         <v>42917</v>
       </c>
@@ -6229,8 +8033,17 @@
       <c r="I200" s="5">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J200" s="7">
+        <v>0</v>
+      </c>
+      <c r="K200" s="7">
+        <v>0</v>
+      </c>
+      <c r="L200" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A201" s="2">
         <v>42948</v>
       </c>
@@ -6258,8 +8071,17 @@
       <c r="I201" s="5">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J201" s="7">
+        <v>0</v>
+      </c>
+      <c r="K201" s="7">
+        <v>0</v>
+      </c>
+      <c r="L201" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A202" s="2">
         <v>42979</v>
       </c>
@@ -6287,8 +8109,17 @@
       <c r="I202" s="5">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J202" s="7">
+        <v>0</v>
+      </c>
+      <c r="K202" s="7">
+        <v>0</v>
+      </c>
+      <c r="L202" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A203" s="2">
         <v>43009</v>
       </c>
@@ -6316,8 +8147,17 @@
       <c r="I203" s="5">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J203" s="7">
+        <v>0</v>
+      </c>
+      <c r="K203" s="7">
+        <v>0</v>
+      </c>
+      <c r="L203" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A204" s="2">
         <v>43040</v>
       </c>
@@ -6345,8 +8185,17 @@
       <c r="I204" s="5">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J204" s="7">
+        <v>0</v>
+      </c>
+      <c r="K204" s="7">
+        <v>0</v>
+      </c>
+      <c r="L204" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A205" s="2">
         <v>43070</v>
       </c>
@@ -6374,8 +8223,17 @@
       <c r="I205" s="5">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J205" s="7">
+        <v>0</v>
+      </c>
+      <c r="K205" s="7">
+        <v>0</v>
+      </c>
+      <c r="L205" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A206" s="2">
         <v>43101</v>
       </c>
@@ -6403,8 +8261,17 @@
       <c r="I206" s="5">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J206" s="7">
+        <v>0</v>
+      </c>
+      <c r="K206" s="7">
+        <v>0</v>
+      </c>
+      <c r="L206" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A207" s="2">
         <v>43132</v>
       </c>
@@ -6432,8 +8299,17 @@
       <c r="I207" s="5">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J207" s="7">
+        <v>0</v>
+      </c>
+      <c r="K207" s="7">
+        <v>0</v>
+      </c>
+      <c r="L207" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A208" s="2">
         <v>43160</v>
       </c>
@@ -6461,8 +8337,17 @@
       <c r="I208" s="5">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J208" s="7">
+        <v>0</v>
+      </c>
+      <c r="K208" s="7">
+        <v>0</v>
+      </c>
+      <c r="L208" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A209" s="2">
         <v>43191</v>
       </c>
@@ -6490,8 +8375,17 @@
       <c r="I209" s="5">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J209" s="7">
+        <v>0</v>
+      </c>
+      <c r="K209" s="7">
+        <v>0</v>
+      </c>
+      <c r="L209" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A210" s="2">
         <v>43221</v>
       </c>
@@ -6519,8 +8413,17 @@
       <c r="I210" s="5">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J210" s="7">
+        <v>0</v>
+      </c>
+      <c r="K210" s="7">
+        <v>0</v>
+      </c>
+      <c r="L210" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A211" s="2">
         <v>43252</v>
       </c>
@@ -6548,8 +8451,17 @@
       <c r="I211" s="5">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J211" s="7">
+        <v>0</v>
+      </c>
+      <c r="K211" s="7">
+        <v>0</v>
+      </c>
+      <c r="L211" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A212" s="2">
         <v>43282</v>
       </c>
@@ -6577,8 +8489,17 @@
       <c r="I212" s="5">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J212" s="7">
+        <v>0</v>
+      </c>
+      <c r="K212" s="7">
+        <v>0</v>
+      </c>
+      <c r="L212" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A213" s="2">
         <v>43313</v>
       </c>
@@ -6606,8 +8527,17 @@
       <c r="I213" s="5">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J213" s="7">
+        <v>0</v>
+      </c>
+      <c r="K213" s="7">
+        <v>0</v>
+      </c>
+      <c r="L213" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A214" s="2">
         <v>43344</v>
       </c>
@@ -6635,8 +8565,17 @@
       <c r="I214" s="5">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J214" s="7">
+        <v>0</v>
+      </c>
+      <c r="K214" s="7">
+        <v>0</v>
+      </c>
+      <c r="L214" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A215" s="2">
         <v>43374</v>
       </c>
@@ -6664,8 +8603,17 @@
       <c r="I215" s="5">
         <v>2.6</v>
       </c>
-    </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J215" s="7">
+        <v>0</v>
+      </c>
+      <c r="K215" s="7">
+        <v>0</v>
+      </c>
+      <c r="L215" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A216" s="2">
         <v>43405</v>
       </c>
@@ -6693,8 +8641,17 @@
       <c r="I216" s="5">
         <v>2.75</v>
       </c>
-    </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J216" s="7">
+        <v>0</v>
+      </c>
+      <c r="K216" s="7">
+        <v>0</v>
+      </c>
+      <c r="L216" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A217" s="2">
         <v>43435</v>
       </c>
@@ -6722,8 +8679,17 @@
       <c r="I217" s="5">
         <v>2.75</v>
       </c>
-    </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J217" s="7">
+        <v>0</v>
+      </c>
+      <c r="K217" s="7">
+        <v>0</v>
+      </c>
+      <c r="L217" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A218" s="2">
         <v>43466</v>
       </c>
@@ -6751,8 +8717,17 @@
       <c r="I218" s="5">
         <v>2.76</v>
       </c>
-    </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J218" s="7">
+        <v>0</v>
+      </c>
+      <c r="K218" s="7">
+        <v>0</v>
+      </c>
+      <c r="L218" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A219" s="2">
         <v>43497</v>
       </c>
@@ -6780,8 +8755,17 @@
       <c r="I219" s="5">
         <v>3</v>
       </c>
-    </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J219" s="7">
+        <v>0</v>
+      </c>
+      <c r="K219" s="7">
+        <v>0</v>
+      </c>
+      <c r="L219" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A220" s="2">
         <v>43525</v>
       </c>
@@ -6809,8 +8793,17 @@
       <c r="I220" s="5">
         <v>3</v>
       </c>
-    </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J220" s="7">
+        <v>0</v>
+      </c>
+      <c r="K220" s="7">
+        <v>0</v>
+      </c>
+      <c r="L220" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A221" s="2">
         <v>43556</v>
       </c>
@@ -6838,8 +8831,17 @@
       <c r="I221" s="5">
         <v>3</v>
       </c>
-    </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J221" s="7">
+        <v>0</v>
+      </c>
+      <c r="K221" s="7">
+        <v>0</v>
+      </c>
+      <c r="L221" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A222" s="2">
         <v>43586</v>
       </c>
@@ -6867,8 +8869,17 @@
       <c r="I222" s="5">
         <v>3</v>
       </c>
-    </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J222" s="7">
+        <v>0</v>
+      </c>
+      <c r="K222" s="7">
+        <v>0</v>
+      </c>
+      <c r="L222" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A223" s="2">
         <v>43617</v>
       </c>
@@ -6896,8 +8907,17 @@
       <c r="I223" s="5">
         <v>2.63</v>
       </c>
-    </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J223" s="7">
+        <v>0</v>
+      </c>
+      <c r="K223" s="7">
+        <v>0</v>
+      </c>
+      <c r="L223" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A224" s="2">
         <v>43647</v>
       </c>
@@ -6925,8 +8945,17 @@
       <c r="I224" s="5">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J224" s="7">
+        <v>0</v>
+      </c>
+      <c r="K224" s="7">
+        <v>0</v>
+      </c>
+      <c r="L224" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A225" s="2">
         <v>43678</v>
       </c>
@@ -6954,8 +8983,17 @@
       <c r="I225" s="5">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J225" s="7">
+        <v>0</v>
+      </c>
+      <c r="K225" s="7">
+        <v>0</v>
+      </c>
+      <c r="L225" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A226" s="2">
         <v>43709</v>
       </c>
@@ -6983,8 +9021,17 @@
       <c r="I226" s="5">
         <v>2.06</v>
       </c>
-    </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J226" s="7">
+        <v>0</v>
+      </c>
+      <c r="K226" s="7">
+        <v>0</v>
+      </c>
+      <c r="L226" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A227" s="2">
         <v>43739</v>
       </c>
@@ -7012,8 +9059,17 @@
       <c r="I227" s="5">
         <v>1.94</v>
       </c>
-    </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J227" s="7">
+        <v>0</v>
+      </c>
+      <c r="K227" s="7">
+        <v>1</v>
+      </c>
+      <c r="L227" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A228" s="2">
         <v>43770</v>
       </c>
@@ -7041,8 +9097,17 @@
       <c r="I228" s="5">
         <v>1.75</v>
       </c>
-    </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J228" s="7">
+        <v>0</v>
+      </c>
+      <c r="K228" s="7">
+        <v>0</v>
+      </c>
+      <c r="L228" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A229" s="2">
         <v>43800</v>
       </c>
@@ -7069,6 +9134,15 @@
       </c>
       <c r="I229" s="5">
         <v>1.75</v>
+      </c>
+      <c r="J229" s="7">
+        <v>0</v>
+      </c>
+      <c r="K229" s="7">
+        <v>0</v>
+      </c>
+      <c r="L229" s="7">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
